--- a/CP3/Objetivos/CP3_Obj4.xlsx
+++ b/CP3/Objetivos/CP3_Obj4.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaim\Documents\universidade\Projeto Integrador\Documentos CP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE66DAC9-3BC9-4E4D-BCB9-3E8CFF50B20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEB171F-B805-47E1-BBD0-9ED7E4214F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{356A400B-8BAE-4F16-A865-2C4BC099A4E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{356A400B-8BAE-4F16-A865-2C4BC099A4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>2V</t>
   </si>
@@ -71,22 +50,60 @@
     <t>6V</t>
   </si>
   <si>
-    <t>Erro da média</t>
+    <t>rpm</t>
   </si>
   <si>
-    <t>erro</t>
+    <t>Positivo</t>
   </si>
   <si>
-    <t>desvio máximo =</t>
+    <t>Negativo</t>
   </si>
   <si>
-    <t>rpm</t>
+    <t>Desvio Máx=</t>
+  </si>
+  <si>
+    <t>Erro da média =</t>
+  </si>
+  <si>
+    <t>Erro da média=</t>
+  </si>
+  <si>
+    <t>Velociade média =</t>
+  </si>
+  <si>
+    <t>Velocidade média =</t>
+  </si>
+  <si>
+    <t>velocidade</t>
+  </si>
+  <si>
+    <t>corrente</t>
+  </si>
+  <si>
+    <t>tensão</t>
+  </si>
+  <si>
+    <t>duty-cycle</t>
+  </si>
+  <si>
+    <t>tempo velocidade máxima=</t>
+  </si>
+  <si>
+    <t>9,11s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,24 +140,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEB806B"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -238,11 +273,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -252,25 +412,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,10 +460,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF81C0"/>
+      <color rgb="FFFF5BAD"/>
       <color rgb="FFEB806B"/>
       <color rgb="FFE7684F"/>
-      <color rgb="FFFF81C0"/>
-      <color rgb="FFFF5BAD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -294,6 +475,4220 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400"/>
+              <a:t>Valor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" baseline="0"/>
+              <a:t> Médio de Alimentação VS Velocidade Média</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23090332805071315"/>
+          <c:y val="8.4547338643188322E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17056041528881788"/>
+          <c:y val="0.27929534744756324"/>
+          <c:w val="0.82943958471118207"/>
+          <c:h val="0.58021065647140924"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$26:$F$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.61707299999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.43523000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.74091600000000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.445460000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.722729999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>112.4034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05C5-4D47-ADD3-B723B6E14644}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="211948479"/>
+        <c:axId val="56959599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="211948479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tensões</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> de Alimentação</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56959599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56959599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Velocidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211948479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Valor Médio de Alimentação VS Velocidade Média</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24061206690856432"/>
+          <c:y val="3.4459311321168383E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16772701126437572"/>
+          <c:y val="0.20291252995549472"/>
+          <c:w val="0.78209966134494446"/>
+          <c:h val="0.70127410704096771"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Q$27:$S$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.23522699999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.42499599999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.3988909999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>-2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>-4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>-6</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$26:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-30.497699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-77.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-126.001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2A2D-4309-8569-76487C195BAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Q$27:$S$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.23522699999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.42499599999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.3988909999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>-2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>-4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>-6</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$26:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-30.497699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-77.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-126.001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2A2D-4309-8569-76487C195BAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="324290831"/>
+        <c:axId val="324291247"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="324290831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>tENSÕES</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> DE ALIMENTAÇÃO</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324291247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324291247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VELOCIDADE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324290831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Velocidade vs Duty-Cycle (Positivo)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$F$4:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.50868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.9375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.34375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.65625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.9375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.65625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.90625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E6E-41D9-875A-CE590D230898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="925535824"/>
+        <c:axId val="925547056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="925535824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925547056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="925547056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925535824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Velocidade vs Duty-Cycle (Negativo)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1472222222222246E-2"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$L$4:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$4:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.681701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.182499999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.90625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.28125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.40625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.40625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.71875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61EF-40B8-B0A8-16A988446721}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="925544144"/>
+        <c:axId val="925537488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="925544144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925537488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="925537488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925544144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="rnd"/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="rnd"/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FA7E5D-2FE8-456A-8835-D6C2E6DB7F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD36AA21-4F95-4BA5-A7F4-A44B697AF696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1705EA5C-2503-4DE1-8E24-A2D9CFEC5D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3063781-B209-4029-8C4E-3B06384F250F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,634 +4988,1452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52548E13-B090-47C6-B84B-C2C41F78AC28}">
-  <dimension ref="B2:U22"/>
+  <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="U2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="22"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="L3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="U3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="22"/>
+      <c r="X3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="22"/>
     </row>
-    <row r="4" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="11" t="s">
+    <row r="4" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="F5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="T4" s="11" t="s">
+      <c r="L5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="11"/>
+      <c r="O5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>27.15</v>
+        <v>30.062531</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="3" cm="1">
-        <f t="array" ref="G6:G16">STDEV(D6:D16)/SQRT(D6:D16)</f>
-        <v>5.9027290166817244E-2</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="G6" s="3">
+        <v>-30.537500000000001</v>
+      </c>
+      <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
-        <v>72.112503000000004</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
+        <v>71.287497999999999</v>
+      </c>
+      <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="3" cm="1">
-        <f t="array" ref="N6:N16">STDEV(K6:K16)/SQRT(K6:K16)</f>
-        <v>2.0011285186617732E-2</v>
-      </c>
-      <c r="Q6" s="2">
+      <c r="P6" s="3">
+        <v>-77.075000000000003</v>
+      </c>
+      <c r="U6" s="2">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
-        <v>111.34999000000001</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="V6" s="3">
+        <v>111.66249000000001</v>
+      </c>
+      <c r="X6" s="2">
         <v>0</v>
       </c>
-      <c r="U6" s="3" cm="1">
-        <f t="array" ref="U6:U16">STDEV(R6:R16)/SQRT(R6:R16)</f>
-        <v>0.15477760339070429</v>
+      <c r="Y6" s="3">
+        <v>-122.6125</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f>C6+5</f>
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>28.287500000000001</v>
+        <v>29.662500000000001</v>
       </c>
       <c r="F7" s="2">
         <f>F6+5</f>
         <v>5</v>
       </c>
       <c r="G7" s="3">
-        <v>5.7828307207954677E-2</v>
-      </c>
-      <c r="J7" s="2">
-        <f>J6+5</f>
+        <v>-30.425000000000001</v>
+      </c>
+      <c r="L7" s="2">
+        <f>L6+5</f>
         <v>5</v>
       </c>
-      <c r="K7" s="3">
-        <v>72.375</v>
-      </c>
-      <c r="M7" s="2">
-        <f>M6+5</f>
+      <c r="M7" s="3">
+        <v>71.625</v>
+      </c>
+      <c r="O7" s="2">
+        <f>O6+5</f>
         <v>5</v>
       </c>
-      <c r="N7" s="3">
-        <v>1.9974962741543312E-2</v>
-      </c>
-      <c r="Q7" s="2">
-        <f>Q6+5</f>
+      <c r="P7" s="3">
+        <v>-77.3125</v>
+      </c>
+      <c r="U7" s="2">
+        <f>U6+5</f>
         <v>5</v>
       </c>
-      <c r="R7" s="3">
-        <v>112.8875</v>
-      </c>
-      <c r="T7" s="2">
-        <f>T6+5</f>
+      <c r="V7" s="3">
+        <v>111.7375</v>
+      </c>
+      <c r="X7" s="2">
+        <f>X6+5</f>
         <v>5</v>
       </c>
-      <c r="U7" s="3">
-        <v>0.15371996652176362</v>
+      <c r="Y7" s="3">
+        <v>-123.27500000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C16" si="0">C7+5</f>
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>28.024999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ref="F8:F16" si="1">F7+5</f>
         <v>10</v>
       </c>
       <c r="G8" s="3">
-        <v>5.8098504351994248E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" ref="J8:J16" si="2">J7+5</f>
+        <v>-30.5625</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8:L16" si="2">L7+5</f>
         <v>10</v>
       </c>
-      <c r="K8" s="3">
-        <v>72.487503000000004</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" ref="M8:M16" si="3">M7+5</f>
+      <c r="M8" s="3">
+        <v>71.700005000000004</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8:O16" si="3">O7+5</f>
         <v>10</v>
       </c>
-      <c r="N8" s="3">
-        <v>1.9959455821270757E-2</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" ref="Q8:Q16" si="4">Q7+5</f>
+      <c r="P8" s="3">
+        <v>-76.924999999999997</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" ref="U8:U16" si="4">U7+5</f>
         <v>10</v>
       </c>
-      <c r="R8" s="3">
-        <v>113.55</v>
-      </c>
-      <c r="T8" s="2">
-        <f t="shared" ref="T8:T16" si="5">T7+5</f>
+      <c r="V8" s="3">
+        <v>112.34999000000001</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" ref="X8:X16" si="5">X7+5</f>
         <v>10</v>
       </c>
-      <c r="U8" s="3">
-        <v>0.15327087600360192</v>
+      <c r="Y8" s="3">
+        <v>-126.0125</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D9" s="3">
-        <v>27.5625</v>
+        <v>29.612501000000002</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="G9" s="3">
-        <v>5.8583924250505036E-2</v>
-      </c>
-      <c r="J9" s="2">
+        <v>-30.712499999999999</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K9" s="3">
-        <v>72.625</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
+        <v>72.037497999999999</v>
+      </c>
+      <c r="O9" s="2">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="N9" s="3">
-        <v>1.9940552788789773E-2</v>
-      </c>
-      <c r="Q9" s="2">
+      <c r="P9" s="3">
+        <v>-77.337500000000006</v>
+      </c>
+      <c r="U9" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="R9" s="3">
-        <v>114.9375</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="V9" s="3">
+        <v>112.71250000000001</v>
+      </c>
+      <c r="X9" s="2">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="U9" s="3">
-        <v>0.15234294103908197</v>
+      <c r="Y9" s="3">
+        <v>-126.875</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D10" s="3">
-        <v>28.125</v>
+        <v>29.425001000000002</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G10" s="3">
-        <v>5.7995126148471597E-2</v>
-      </c>
-      <c r="J10" s="2">
+        <v>-30.675000000000001</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K10" s="3">
-        <v>72.537497999999999</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3">
+        <v>71.6875</v>
+      </c>
+      <c r="O10" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="N10" s="3">
-        <v>1.9952576310524488E-2</v>
-      </c>
-      <c r="Q10" s="2">
+      <c r="P10" s="3">
+        <v>-77.3125</v>
+      </c>
+      <c r="U10" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="R10" s="3">
-        <v>112.375</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="V10" s="3">
+        <v>112.27500000000001</v>
+      </c>
+      <c r="X10" s="2">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="U10" s="3">
-        <v>0.1540700971732708</v>
+      <c r="Y10" s="3">
+        <v>-126.77500000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D11" s="3">
-        <v>27.7</v>
+        <v>29.287500000000001</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="G11" s="3">
-        <v>5.8438341021568509E-2</v>
-      </c>
-      <c r="J11" s="2">
+        <v>-30.362500000000001</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K11" s="3">
-        <v>72.537497999999999</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
+        <v>71.787497999999999</v>
+      </c>
+      <c r="O11" s="2">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="N11" s="3">
-        <v>1.9952576310524488E-2</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="P11" s="3">
+        <v>-77.474990000000005</v>
+      </c>
+      <c r="U11" s="2">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="R11" s="3">
-        <v>113.77500000000001</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="V11" s="3">
+        <v>112.47499000000001</v>
+      </c>
+      <c r="X11" s="2">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="U11" s="3">
-        <v>0.15311924772971272</v>
+      <c r="Y11" s="3">
+        <v>-126.9</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D12" s="3">
-        <v>27.737501000000002</v>
+        <v>29.337499999999999</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="G12" s="3">
-        <v>5.839882344838259E-2</v>
-      </c>
-      <c r="J12" s="2">
+        <v>-30.412500000000001</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K12" s="3">
-        <v>72.637505000000004</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3">
+        <v>71.875</v>
+      </c>
+      <c r="O12" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="N12" s="3">
-        <v>1.9938836269578226E-2</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="P12" s="3">
+        <v>-77.625</v>
+      </c>
+      <c r="U12" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="R12" s="3">
-        <v>115.28749000000001</v>
-      </c>
-      <c r="T12" s="2">
+      <c r="V12" s="3">
+        <v>112.625</v>
+      </c>
+      <c r="X12" s="2">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="U12" s="3">
-        <v>0.15211152376396311</v>
+      <c r="Y12" s="3">
+        <v>-129.4</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <f>C12+5</f>
         <v>35</v>
       </c>
       <c r="D13" s="3">
-        <v>27.8250001</v>
+        <v>29.274999999999999</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="G13" s="3">
-        <v>5.8306930044338665E-2</v>
-      </c>
-      <c r="J13" s="2">
+        <v>-30.512499999999999</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="K13" s="3">
-        <v>72.200005000000004</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="M13" s="3">
+        <v>71.712502000000001</v>
+      </c>
+      <c r="O13" s="2">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="N13" s="3">
-        <v>1.999915528210635E-2</v>
-      </c>
-      <c r="Q13" s="2">
+      <c r="P13" s="3">
+        <v>-77.412490000000005</v>
+      </c>
+      <c r="U13" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="R13" s="3">
-        <v>115.78749000000001</v>
-      </c>
-      <c r="T13" s="2">
+      <c r="V13" s="3">
+        <v>112.5625</v>
+      </c>
+      <c r="X13" s="2">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="U13" s="3">
-        <v>0.1517827402023702</v>
+      <c r="Y13" s="3">
+        <v>-128.94990000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D14" s="3">
-        <v>28.0250001</v>
+        <v>29.4</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G14" s="3">
-        <v>5.8098504248339462E-2</v>
-      </c>
-      <c r="J14" s="2">
+        <v>-30.612500000000001</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K14" s="3">
-        <v>72.5</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
+        <v>71.637505000000004</v>
+      </c>
+      <c r="O14" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="N14" s="3">
-        <v>1.9957735517345369E-2</v>
-      </c>
-      <c r="Q14" s="2">
+      <c r="P14" s="3">
+        <v>-77.362499999999997</v>
+      </c>
+      <c r="U14" s="2">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="R14" s="3">
-        <v>115.83750000000001</v>
-      </c>
-      <c r="T14" s="2">
+      <c r="V14" s="3">
+        <v>112.8875</v>
+      </c>
+      <c r="X14" s="2">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="U14" s="3">
-        <v>0.15174997242732244</v>
+      <c r="Y14" s="3">
+        <v>-126.53740000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D15" s="3">
-        <v>27.950001</v>
+        <v>29.125</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="G15" s="3">
-        <v>5.8176400782259753E-2</v>
-      </c>
-      <c r="J15" s="2">
+        <v>-30.4</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="K15" s="3">
-        <v>72.587502000000001</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3">
+        <v>71.700005000000004</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="N15" s="3">
-        <v>1.9945702671932061E-2</v>
-      </c>
-      <c r="Q15" s="2">
+      <c r="P15" s="3">
+        <v>-77.537490000000005</v>
+      </c>
+      <c r="U15" s="2">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="R15" s="3">
-        <v>116</v>
-      </c>
-      <c r="T15" s="2">
+      <c r="V15" s="3">
+        <v>112.2</v>
+      </c>
+      <c r="X15" s="2">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="U15" s="3">
-        <v>0.1516436447865124</v>
+      <c r="Y15" s="3">
+        <v>-124.22490000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D16" s="5">
-        <v>27.862501000000002</v>
+        <v>29.212499999999999</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G16" s="5">
-        <v>5.8267678388736782E-2</v>
-      </c>
-      <c r="J16" s="4">
+        <v>-30.262499999999999</v>
+      </c>
+      <c r="L16" s="4">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="5">
-        <v>72.525002000000001</v>
-      </c>
-      <c r="M16" s="4">
+      <c r="M16" s="5">
+        <v>71.900002000000001</v>
+      </c>
+      <c r="O16" s="4">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="N16" s="5">
-        <v>1.9954295142981564E-2</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="P16" s="5">
+        <v>-77.474990000000005</v>
+      </c>
+      <c r="U16" s="4">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="R16" s="5">
-        <v>115.91249000000001</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="V16" s="5">
+        <v>112.95</v>
+      </c>
+      <c r="X16" s="4">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="U16" s="5">
-        <v>0.1517008768916849</v>
+      <c r="Y16" s="5">
+        <v>-124.45</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19">
-        <f>STDEV(D6:D16)</f>
-        <v>0.30756560231515145</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="13"/>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="1">
+        <f>MAX(ABS(MAX(D6:D16)-AVERAGE(D6:D16)),ABS(MIN(D6:D16)-AVERAGE(D6:D16)))</f>
+        <v>0.61707345454545504</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19">
+        <f>MAX(ABS(MAX(G6:G16)-AVERAGE(G6:G16)),ABS(MIN(G6:G16)-AVERAGE(G6:G16)))</f>
+        <v>0.23522727272727195</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="21"/>
       <c r="M19">
-        <f>STDEV(K6:K16)</f>
-        <v>0.16993399455692318</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="13"/>
-      <c r="T19">
-        <f>STDEV(R6:R16)</f>
-        <v>1.6332520382598645</v>
+        <f>MAX(ABS(MAX(M6:M16)-AVERAGE(M6:M16)),ABS(MIN(M6:M16)-AVERAGE(M6:M16)))</f>
+        <v>0.4352304545454615</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19">
+        <f>MAX(ABS(MAX(P6:P16)-AVERAGE(P6:P16)),ABS(MIN(P6:P16)-AVERAGE(P6:P16)))</f>
+        <v>0.4249963636363816</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="21"/>
+      <c r="V19">
+        <f>MAX(ABS(MAX(V6:V16)-AVERAGE(V6:V16)),ABS(MIN(V6:V16)-AVERAGE(V6:V16)))</f>
+        <v>0.74091636363635871</v>
+      </c>
+      <c r="X19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="21"/>
+      <c r="Z19">
+        <f>MAX(ABS(MAX(Y6:Y16)-AVERAGE(Y6:Y16)),ABS(MIN(Y6:Y16)-AVERAGE(Y6:Y16)))</f>
+        <v>3.3988909090909232</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20">
+        <f>AVERAGE(D6:D16)</f>
+        <v>29.445457545454545</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20">
+        <f>AVERAGE(G6:G16)</f>
+        <v>-30.497727272727271</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20">
+        <f>AVERAGE(M6:M16)</f>
+        <v>71.722728454545461</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="21"/>
+      <c r="Q20">
+        <f>AVERAGE(P6:P16)</f>
+        <v>-77.349996363636379</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="U20" s="21"/>
+      <c r="V20">
+        <f>AVERAGE(V6:V16)</f>
+        <v>112.40340636363636</v>
+      </c>
+      <c r="X20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y20" s="21"/>
+      <c r="Z20">
+        <f>AVERAGE(Y6:Y16)</f>
+        <v>-126.00110909090908</v>
+      </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="1">
+        <f>STDEV(D6:D16)/SQRT(COUNT(D6:D16))</f>
+        <v>7.8848172754335533E-2</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21">
+        <f>STDEV(G6:G16)/SQRT(COUNT(G6:G16))</f>
+        <v>4.1826827169585551E-2</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="21"/>
+      <c r="M21">
+        <f>STDEV(M6:M16)/SQRT(COUNT(M6:M16))</f>
+        <v>5.7722318512365457E-2</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="21"/>
+      <c r="Q21">
+        <f>STDEV(P6:P16)/SQRT(COUNT(P6:P16))</f>
+        <v>6.0700644017442573E-2</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="21"/>
+      <c r="V21">
+        <f>STDEV(V6:V16)/SQRT(COUNT(V6:V16))</f>
+        <v>0.12653755690611629</v>
+      </c>
+      <c r="X21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="21"/>
+      <c r="Z21">
+        <f>STDEV(Y6:Y16)/SQRT(COUNT(Y6:Y16))</f>
+        <v>0.65492097197844501</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
+    <row r="23" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C25" s="12"/>
+      <c r="D25" s="13">
+        <v>29.445460000000001</v>
+      </c>
+      <c r="E25" s="13">
+        <v>71.722729999999999</v>
+      </c>
+      <c r="F25" s="14">
+        <v>112.4034</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="16"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C26" s="12"/>
+      <c r="D26" s="17">
+        <v>0.61707299999999998</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.43523000000000001</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0.74091600000000002</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="14">
+        <v>-30.497699999999998</v>
+      </c>
+      <c r="R26" s="14">
+        <v>-77.349999999999994</v>
+      </c>
+      <c r="S26" s="14">
+        <v>-126.001</v>
+      </c>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="16"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C27" s="12"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="17">
+        <v>0.23522699999999999</v>
+      </c>
+      <c r="R27" s="17">
+        <v>0.42499599999999998</v>
+      </c>
+      <c r="S27" s="17">
+        <v>3.3988909999999999</v>
+      </c>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="16"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C28" s="12"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="16"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C29" s="12"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="16"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C30" s="12"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="16"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C31" s="12"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="16"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C32" s="12"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="16"/>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C33" s="12"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="16"/>
+      <c r="Z33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C34" s="12"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="16"/>
+    </row>
+    <row r="35" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C35" s="12"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="16"/>
+    </row>
+    <row r="36" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C36" s="12"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="16"/>
+    </row>
+    <row r="37" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C37" s="12"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="16"/>
+    </row>
+    <row r="38" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="Q2:U2"/>
+  <mergeCells count="28">
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F71CC6B-798C-4741-9BB1-DD0992EEC7C9}">
+  <dimension ref="F2:T14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F4" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="3"/>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <f>F4+10</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <v>-0.73099999999999998</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F14" si="0">F5+10</f>
+        <v>20</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L6" s="2">
+        <f>L5-10</f>
+        <v>-20</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <v>-1.452</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="25">
+        <v>15.50868</v>
+      </c>
+      <c r="H7" s="25">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7:L14" si="1">L6-10</f>
+        <v>-30</v>
+      </c>
+      <c r="M7" s="25">
+        <v>14.681701</v>
+      </c>
+      <c r="N7" s="25">
+        <v>-2.1680000000000001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="8" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G8" s="25">
+        <v>28.9375</v>
+      </c>
+      <c r="H8" s="25">
+        <v>2.8929999999999998</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="M8" s="25">
+        <v>26.375</v>
+      </c>
+      <c r="N8" s="25">
+        <v>-2.879</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G9" s="25">
+        <v>43.34375</v>
+      </c>
+      <c r="H9" s="25">
+        <v>3.5950000000000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="M9" s="25">
+        <v>38.182499999999997</v>
+      </c>
+      <c r="N9" s="25">
+        <v>-3.5830000000000002</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G10" s="25">
+        <v>56.65625</v>
+      </c>
+      <c r="H10" s="25">
+        <v>4.3029999999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="M10" s="25">
+        <v>46.90625</v>
+      </c>
+      <c r="N10" s="25">
+        <v>-4.2750000000000004</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G11" s="25">
+        <v>68.9375</v>
+      </c>
+      <c r="H11" s="25">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>-70</v>
+      </c>
+      <c r="M11" s="25">
+        <v>59.28125</v>
+      </c>
+      <c r="N11" s="25">
+        <v>-4.9379999999999997</v>
+      </c>
+      <c r="O11" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G12" s="25">
+        <v>84.65625</v>
+      </c>
+      <c r="H12" s="25">
+        <v>5.6959999999999997</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>-80</v>
+      </c>
+      <c r="M12" s="25">
+        <v>72.40625</v>
+      </c>
+      <c r="N12" s="25">
+        <v>-5.6050000000000004</v>
+      </c>
+      <c r="O12" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="13" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G13" s="25">
+        <v>96.90625</v>
+      </c>
+      <c r="H13" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+      <c r="M13" s="25">
+        <v>84.40625</v>
+      </c>
+      <c r="N13" s="25">
+        <v>6.26</v>
+      </c>
+      <c r="O13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G14" s="26">
+        <v>110.25</v>
+      </c>
+      <c r="H14" s="26">
+        <v>7.04</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="M14" s="26">
+        <v>99.71875</v>
+      </c>
+      <c r="N14" s="26">
+        <v>6.89</v>
+      </c>
+      <c r="O14" s="5">
+        <v>5.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q3:S3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>